--- a/demo/py_outputs/Center_UP_West.xlsx
+++ b/demo/py_outputs/Center_UP_West.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="201">
   <si>
     <t>censuscode2011</t>
   </si>
@@ -139,46 +139,7 @@
     <t>Changeri</t>
   </si>
   <si>
-    <t>Lalpur</t>
-  </si>
-  <si>
-    <t>Sitapur</t>
-  </si>
-  <si>
-    <t>Manipur</t>
-  </si>
-  <si>
-    <t>Asroi</t>
-  </si>
-  <si>
-    <t>Rajpur</t>
-  </si>
-  <si>
-    <t>Sithrauli</t>
-  </si>
-  <si>
-    <t>Dohai</t>
-  </si>
-  <si>
-    <t>Kokna Kalan</t>
-  </si>
-  <si>
-    <t>Saleh Pur Chandwara</t>
-  </si>
-  <si>
-    <t>Udhena</t>
-  </si>
-  <si>
-    <t>Bawali</t>
-  </si>
-  <si>
-    <t>Nagla Salem</t>
-  </si>
-  <si>
-    <t>Manik Pur</t>
-  </si>
-  <si>
-    <t>Mahrara</t>
+    <t>Uncha</t>
   </si>
   <si>
     <t>Mundi Jahangirpur</t>
@@ -298,12 +259,6 @@
     <t>Gahara Khurd</t>
   </si>
   <si>
-    <t>Kunjalpur</t>
-  </si>
-  <si>
-    <t>Berni</t>
-  </si>
-  <si>
     <t>Jalali</t>
   </si>
   <si>
@@ -316,15 +271,9 @@
     <t>Aligarh</t>
   </si>
   <si>
-    <t>Hathras</t>
-  </si>
-  <si>
     <t>Agra</t>
   </si>
   <si>
-    <t>Etah</t>
-  </si>
-  <si>
     <t>Uttar Pradesh</t>
   </si>
   <si>
@@ -337,15 +286,9 @@
     <t>Categ-6</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
     <t>Categ-7</t>
   </si>
   <si>
-    <t>Jalesar</t>
-  </si>
-  <si>
     <t>Tundla</t>
   </si>
   <si>
@@ -361,16 +304,7 @@
     <t>bhataula_3627</t>
   </si>
   <si>
-    <t>bhuklara_1686</t>
-  </si>
-  <si>
-    <t>nagariya-udhena _1544</t>
-  </si>
-  <si>
-    <t>nagla-salem_1633</t>
-  </si>
-  <si>
-    <t>nagla-mewa_1692</t>
+    <t>sakalpur-sapera basti_8911</t>
   </si>
   <si>
     <t>nizamatpur_6137</t>
@@ -439,27 +373,12 @@
     <t>khedia-_7171</t>
   </si>
   <si>
-    <t>nagla-baini _1746</t>
-  </si>
-  <si>
-    <t>berni_1354; kunjalpur_1329</t>
-  </si>
-  <si>
     <t>jalali_3505</t>
   </si>
   <si>
-    <t>sherpur_1536</t>
-  </si>
-  <si>
     <t>nagla-baharwati_7349</t>
   </si>
   <si>
-    <t>jalalpur_1246</t>
-  </si>
-  <si>
-    <t>bawali_1213</t>
-  </si>
-  <si>
     <t>gujarpura_7493</t>
   </si>
   <si>
@@ -469,12 +388,12 @@
     <t>kheda-bakanda _5147</t>
   </si>
   <si>
+    <t>baroda-sadar_9106</t>
+  </si>
+  <si>
     <t>baseri-chahar_7097</t>
   </si>
   <si>
-    <t>kunjalpur_1182</t>
-  </si>
-  <si>
     <t>kiraoli-_7413</t>
   </si>
   <si>
@@ -493,37 +412,10 @@
     <t>changeri_4542</t>
   </si>
   <si>
-    <t>lalpur_1771; sitapur_2043</t>
-  </si>
-  <si>
-    <t>kajaraut_1713</t>
-  </si>
-  <si>
-    <t>manipur-_1763</t>
-  </si>
-  <si>
-    <t>asroi_1014; asroi_2040</t>
-  </si>
-  <si>
-    <t>nagla-baini _2007</t>
-  </si>
-  <si>
-    <t>kokna-kalan_2053</t>
-  </si>
-  <si>
-    <t>bawali_1214</t>
-  </si>
-  <si>
-    <t>nagla-salem_2074</t>
-  </si>
-  <si>
-    <t>navalpur-_1852</t>
-  </si>
-  <si>
     <t>satera-_6360</t>
   </si>
   <si>
-    <t>undera_6886; undera_5632</t>
+    <t>undera_5632; undera_6886</t>
   </si>
   <si>
     <t>jannu-nagla_6773</t>
@@ -553,7 +445,7 @@
     <t>gopau_6691</t>
   </si>
   <si>
-    <t>puramana-_5146; puramana_5143</t>
+    <t>puramana_5143; puramana-_5146</t>
   </si>
   <si>
     <t>bidhapur_6940; bidhapur_7712</t>
@@ -577,24 +469,12 @@
     <t>nagla-dayaram_7679</t>
   </si>
   <si>
-    <t>kunjalpur_1819</t>
-  </si>
-  <si>
-    <t>shahgarhi_1188; nagla-bhajan_1271; berni_1204</t>
-  </si>
-  <si>
-    <t>khera-bagkala_5891; kiraoli-_5163; kiraoli_5161; kiraoli_5160; kiraoli_5159; kiraoli_5158; ambekar-colony_6926</t>
+    <t>kiraoli-_5163; kiraoli_5161; kiraoli_5160; kiraoli_5159; kiraoli_5158; ambekar-colony_6926; khera-bagkala_5891; kiraoli-_8664</t>
   </si>
   <si>
     <t>sikri-do hissa _7007</t>
   </si>
   <si>
-    <t>bawali_1213; bawali_1214</t>
-  </si>
-  <si>
-    <t>nagla-salem_1633; nagla-salem_2074</t>
-  </si>
-  <si>
     <t>nizamatpur_6137; satera-_6360</t>
   </si>
   <si>
@@ -616,58 +496,109 @@
     <t>abhaudopura_5190; abhaudopura_5784; abhuapura-_5795</t>
   </si>
   <si>
-    <t>nagla-baini _1746; kunjalpur_1182; kunjalpur_1819</t>
-  </si>
-  <si>
-    <t>berni_1354; kunjalpur_1329; shahgarhi_1188; nagla-bhajan_1271; berni_1204</t>
-  </si>
-  <si>
-    <t>kiraoli-_7413; khera-bagkala_5891; kiraoli-_5163; kiraoli_5161; kiraoli_5160; kiraoli_5159; kiraoli_5158; ambekar-colony_6926</t>
+    <t>baroda-sadar_7101; baroda-sadar_9106</t>
+  </si>
+  <si>
+    <t>kiraoli-_7413; kiraoli-_5163; kiraoli_5161; kiraoli_5160; kiraoli_5159; kiraoli_5158; ambekar-colony_6926; khera-bagkala_5891; kiraoli-_8664</t>
   </si>
   <si>
     <t>fatehpur-sikri_6595; sikri-do hissa _7007</t>
   </si>
   <si>
-    <t>04/23/2024</t>
-  </si>
-  <si>
-    <t>03/09/2024</t>
-  </si>
-  <si>
-    <t>03/12/2024</t>
-  </si>
-  <si>
-    <t>04/22/2024</t>
-  </si>
-  <si>
-    <t>12/21/2023</t>
-  </si>
-  <si>
-    <t>05/07/2024</t>
-  </si>
-  <si>
-    <t>05/03/2024</t>
-  </si>
-  <si>
-    <t>03/06/2024</t>
-  </si>
-  <si>
-    <t>02/22/2024</t>
-  </si>
-  <si>
-    <t>03/11/2024</t>
-  </si>
-  <si>
-    <t>01/01/2024</t>
-  </si>
-  <si>
-    <t>03/08/2024</t>
-  </si>
-  <si>
-    <t>03/22/2024</t>
-  </si>
-  <si>
-    <t>01/20/2024</t>
+    <t>04/19/2024</t>
+  </si>
+  <si>
+    <t>01/19/2024</t>
+  </si>
+  <si>
+    <t>01/23/2024</t>
+  </si>
+  <si>
+    <t>01/31/2024</t>
+  </si>
+  <si>
+    <t>04/11/2024</t>
+  </si>
+  <si>
+    <t>02/07/2024</t>
+  </si>
+  <si>
+    <t>04/18/2024</t>
+  </si>
+  <si>
+    <t>03/07/2024</t>
+  </si>
+  <si>
+    <t>05/23/2024</t>
+  </si>
+  <si>
+    <t>04/12/2024</t>
+  </si>
+  <si>
+    <t>04/17/2024</t>
+  </si>
+  <si>
+    <t>04/05/2024</t>
+  </si>
+  <si>
+    <t>03/29/2024</t>
+  </si>
+  <si>
+    <t>03/27/2024</t>
+  </si>
+  <si>
+    <t>04/16/2024</t>
+  </si>
+  <si>
+    <t>03/10/2024</t>
+  </si>
+  <si>
+    <t>04/20/2024</t>
+  </si>
+  <si>
+    <t>03/28/2024</t>
+  </si>
+  <si>
+    <t>03/21/2024</t>
+  </si>
+  <si>
+    <t>04/04/2024</t>
+  </si>
+  <si>
+    <t>02/29/2024</t>
+  </si>
+  <si>
+    <t>03/30/2024</t>
+  </si>
+  <si>
+    <t>02/28/2024</t>
+  </si>
+  <si>
+    <t>02/27/2024</t>
+  </si>
+  <si>
+    <t>03/13/2024</t>
+  </si>
+  <si>
+    <t>03/19/2024</t>
+  </si>
+  <si>
+    <t>05/28/2024</t>
+  </si>
+  <si>
+    <t>04/09/2024</t>
+  </si>
+  <si>
+    <t>03/20/2024</t>
+  </si>
+  <si>
+    <t>04/03/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>04/01/2024</t>
   </si>
   <si>
     <t>UP</t>
@@ -676,12 +607,6 @@
     <t>27.9150648,78.1135004</t>
   </si>
   <si>
-    <t>27.5695990,78.0613381</t>
-  </si>
-  <si>
-    <t>27.466723,78.2947265</t>
-  </si>
-  <si>
     <t>27.227812,78.230427</t>
   </si>
   <si>
@@ -692,9 +617,6 @@
   </si>
   <si>
     <t>Srifin</t>
-  </si>
-  <si>
-    <t>Axis</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +974,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG68"/>
+  <dimension ref="A1:AG52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1170,10 +1092,10 @@
         <v>202128</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F2">
         <v>4821</v>
@@ -1182,22 +1104,22 @@
         <v>764</v>
       </c>
       <c r="H2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="I2" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="J2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="Q2" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="R2">
         <v>118</v>
@@ -1223,14 +1145,17 @@
       <c r="Y2">
         <v>13</v>
       </c>
+      <c r="Z2" t="s">
+        <v>163</v>
+      </c>
       <c r="AA2" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="AC2" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="AD2">
         <v>27.9150648</v>
@@ -1239,10 +1164,10 @@
         <v>78.11350040000001</v>
       </c>
       <c r="AF2" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG2" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -1256,10 +1181,10 @@
         <v>202128</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F3">
         <v>1759</v>
@@ -1268,22 +1193,22 @@
         <v>322</v>
       </c>
       <c r="H3" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="I3" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="J3" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="Q3" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="R3">
         <v>118</v>
@@ -1309,14 +1234,17 @@
       <c r="Y3">
         <v>0</v>
       </c>
+      <c r="Z3" t="s">
+        <v>164</v>
+      </c>
       <c r="AA3" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB3" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="AC3" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="AD3">
         <v>27.9150648</v>
@@ -1325,10 +1253,10 @@
         <v>78.11350040000001</v>
       </c>
       <c r="AF3" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG3" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -1342,10 +1270,10 @@
         <v>202128</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F4">
         <v>1088</v>
@@ -1354,22 +1282,22 @@
         <v>191</v>
       </c>
       <c r="H4" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="I4" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="J4" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="Q4" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="R4">
         <v>118</v>
@@ -1395,14 +1323,17 @@
       <c r="Y4">
         <v>0</v>
       </c>
+      <c r="Z4" t="s">
+        <v>165</v>
+      </c>
       <c r="AA4" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB4" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="AC4" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="AD4">
         <v>27.9150648</v>
@@ -1411,10 +1342,10 @@
         <v>78.11350040000001</v>
       </c>
       <c r="AF4" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG4" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -1428,10 +1359,10 @@
         <v>202128</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F5">
         <v>2437</v>
@@ -1440,22 +1371,22 @@
         <v>349</v>
       </c>
       <c r="H5" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="I5" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="Q5" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="R5">
         <v>118</v>
@@ -1481,14 +1412,17 @@
       <c r="Y5">
         <v>6</v>
       </c>
+      <c r="Z5" t="s">
+        <v>166</v>
+      </c>
       <c r="AA5" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB5" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="AC5" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="AD5">
         <v>27.9150648</v>
@@ -1497,10 +1431,10 @@
         <v>78.11350040000001</v>
       </c>
       <c r="AF5" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG5" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -1514,10 +1448,10 @@
         <v>202128</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E6" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F6">
         <v>1204</v>
@@ -1526,22 +1460,22 @@
         <v>202</v>
       </c>
       <c r="H6" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="I6" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="Q6" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="R6">
         <v>118</v>
@@ -1567,14 +1501,17 @@
       <c r="Y6">
         <v>5</v>
       </c>
+      <c r="Z6" t="s">
+        <v>167</v>
+      </c>
       <c r="AA6" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB6" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="AC6" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="AD6">
         <v>27.9150648</v>
@@ -1583,10 +1520,10 @@
         <v>78.11350040000001</v>
       </c>
       <c r="AF6" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG6" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -1600,10 +1537,10 @@
         <v>202128</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E7" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F7">
         <v>2475</v>
@@ -1612,22 +1549,22 @@
         <v>431</v>
       </c>
       <c r="H7" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="I7" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="Q7" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="R7">
         <v>118</v>
@@ -1653,14 +1590,17 @@
       <c r="Y7">
         <v>0</v>
       </c>
+      <c r="Z7" t="s">
+        <v>168</v>
+      </c>
       <c r="AA7" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB7" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="AC7" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="AD7">
         <v>27.9150648</v>
@@ -1669,10 +1609,10 @@
         <v>78.11350040000001</v>
       </c>
       <c r="AF7" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG7" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -1686,10 +1626,10 @@
         <v>202128</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E8" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F8">
         <v>891</v>
@@ -1698,22 +1638,22 @@
         <v>169</v>
       </c>
       <c r="H8" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="I8" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="Q8" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="R8">
         <v>118</v>
@@ -1739,14 +1679,17 @@
       <c r="Y8">
         <v>8</v>
       </c>
+      <c r="Z8" t="s">
+        <v>169</v>
+      </c>
       <c r="AA8" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB8" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="AC8" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="AD8">
         <v>27.9150648</v>
@@ -1755,10 +1698,10 @@
         <v>78.11350040000001</v>
       </c>
       <c r="AF8" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG8" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -1772,10 +1715,10 @@
         <v>202128</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F9">
         <v>1419</v>
@@ -1784,22 +1727,22 @@
         <v>247</v>
       </c>
       <c r="H9" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="Q9" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="R9">
         <v>118</v>
@@ -1825,14 +1768,17 @@
       <c r="Y9">
         <v>0</v>
       </c>
+      <c r="Z9" t="s">
+        <v>170</v>
+      </c>
       <c r="AA9" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB9" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="AC9" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="AD9">
         <v>27.9150648</v>
@@ -1841,63 +1787,63 @@
         <v>78.11350040000001</v>
       </c>
       <c r="AF9" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG9" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:33">
       <c r="A10">
-        <v>122861</v>
+        <v>124494</v>
       </c>
       <c r="B10" t="s">
         <v>41</v>
       </c>
       <c r="C10">
-        <v>202124</v>
+        <v>283126</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E10" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F10">
-        <v>1656</v>
+        <v>3266</v>
       </c>
       <c r="G10">
-        <v>293</v>
+        <v>538</v>
       </c>
       <c r="H10" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="P10" t="s">
-        <v>159</v>
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>96</v>
       </c>
       <c r="Q10" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="R10">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="S10">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="T10">
         <v>4</v>
       </c>
       <c r="U10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1909,81 +1855,84 @@
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z10" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="AA10" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB10" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="AC10" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="AD10">
-        <v>27.569599</v>
+        <v>27.227812</v>
       </c>
       <c r="AE10">
-        <v>78.0613381</v>
+        <v>78.23042700000001</v>
       </c>
       <c r="AF10" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG10" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:33">
       <c r="A11">
-        <v>122867</v>
+        <v>124496</v>
       </c>
       <c r="B11" t="s">
         <v>42</v>
       </c>
       <c r="C11">
-        <v>202124</v>
+        <v>283126</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E11" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F11">
-        <v>1551</v>
+        <v>4922</v>
       </c>
       <c r="G11">
-        <v>261</v>
+        <v>802</v>
       </c>
       <c r="H11" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="I11" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="J11" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L11" t="s">
+        <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="Q11" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R11">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="S11">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="T11">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -1998,84 +1947,84 @@
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z11" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="AA11" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB11" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="AC11" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="AD11">
-        <v>27.569599</v>
+        <v>27.227812</v>
       </c>
       <c r="AE11">
-        <v>78.0613381</v>
+        <v>78.23042700000001</v>
       </c>
       <c r="AF11" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG11" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:33">
       <c r="A12">
-        <v>122903</v>
+        <v>124691</v>
       </c>
       <c r="B12" t="s">
         <v>43</v>
       </c>
       <c r="C12">
-        <v>202145</v>
+        <v>282008</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F12">
-        <v>1071</v>
+        <v>7884</v>
       </c>
       <c r="G12">
-        <v>172</v>
+        <v>1230</v>
       </c>
       <c r="H12" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="I12" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="P12" t="s">
-        <v>161</v>
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>98</v>
       </c>
       <c r="Q12" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="R12">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="S12">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="T12">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="U12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -2087,84 +2036,84 @@
         <v>0</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z12" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="AA12" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB12" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="AC12" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="AD12">
-        <v>27.569599</v>
+        <v>27.1392655</v>
       </c>
       <c r="AE12">
-        <v>78.0613381</v>
+        <v>77.78329100000001</v>
       </c>
       <c r="AF12" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG12" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:33">
       <c r="A13">
-        <v>122904</v>
+        <v>124700</v>
       </c>
       <c r="B13" t="s">
         <v>44</v>
       </c>
       <c r="C13">
-        <v>202145</v>
+        <v>283110</v>
       </c>
       <c r="D13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13">
+        <v>3192</v>
+      </c>
+      <c r="G13">
+        <v>514</v>
+      </c>
+      <c r="H13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" t="s">
+        <v>90</v>
+      </c>
+      <c r="J13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
         <v>99</v>
       </c>
-      <c r="E13" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13">
-        <v>3234</v>
-      </c>
-      <c r="G13">
-        <v>522</v>
-      </c>
-      <c r="H13" t="s">
-        <v>104</v>
-      </c>
-      <c r="I13" t="s">
-        <v>107</v>
-      </c>
-      <c r="J13" t="s">
-        <v>100</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="P13" t="s">
-        <v>162</v>
-      </c>
       <c r="Q13" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="R13">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="S13">
         <v>8</v>
       </c>
       <c r="T13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -2176,72 +2125,78 @@
         <v>0</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z13" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="AA13" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB13" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="AC13" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="AD13">
-        <v>27.569599</v>
+        <v>27.1392655</v>
       </c>
       <c r="AE13">
-        <v>78.0613381</v>
+        <v>77.78329100000001</v>
       </c>
       <c r="AF13" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG13" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:33">
       <c r="A14">
-        <v>123214</v>
+        <v>124709</v>
       </c>
       <c r="B14" t="s">
         <v>45</v>
       </c>
       <c r="C14">
-        <v>204102</v>
+        <v>283110</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F14">
-        <v>1963</v>
+        <v>582</v>
       </c>
       <c r="G14">
-        <v>351</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="I14" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="J14" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
+      <c r="L14" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>100</v>
+      </c>
       <c r="R14">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -2259,78 +2214,81 @@
         <v>0</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>173</v>
       </c>
       <c r="AA14" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB14" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="AC14" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="AD14">
-        <v>27.569599</v>
+        <v>27.1392655</v>
       </c>
       <c r="AE14">
-        <v>78.0613381</v>
+        <v>77.78329100000001</v>
       </c>
       <c r="AF14" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG14" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:33">
       <c r="A15">
-        <v>123218</v>
+        <v>124711</v>
       </c>
       <c r="B15" t="s">
         <v>46</v>
       </c>
       <c r="C15">
-        <v>204102</v>
+        <v>283110</v>
       </c>
       <c r="D15" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F15">
-        <v>1448</v>
+        <v>8754</v>
       </c>
       <c r="G15">
-        <v>232</v>
+        <v>1372</v>
       </c>
       <c r="H15" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="I15" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="J15" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="O15" t="s">
-        <v>146</v>
+        <v>2</v>
+      </c>
+      <c r="L15" t="s">
+        <v>101</v>
       </c>
       <c r="Q15" t="s">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="R15">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="S15">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -2345,81 +2303,81 @@
         <v>0</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z15" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="AA15" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB15" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="AC15" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="AD15">
-        <v>27.569599</v>
+        <v>27.1392655</v>
       </c>
       <c r="AE15">
-        <v>78.0613381</v>
+        <v>77.78329100000001</v>
       </c>
       <c r="AF15" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG15" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:33">
       <c r="A16">
-        <v>123537</v>
+        <v>124739</v>
       </c>
       <c r="B16" t="s">
         <v>47</v>
       </c>
       <c r="C16">
-        <v>281104</v>
+        <v>283110</v>
       </c>
       <c r="D16" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F16">
-        <v>3389</v>
+        <v>4446</v>
       </c>
       <c r="G16">
-        <v>535</v>
+        <v>670</v>
       </c>
       <c r="H16" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="I16" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="J16" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="Q16" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="R16">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="S16">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="T16">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="U16">
         <v>0</v>
@@ -2437,81 +2395,81 @@
         <v>0</v>
       </c>
       <c r="Z16" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="AA16" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB16" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="AC16" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="AD16">
-        <v>27.466723</v>
+        <v>27.1392655</v>
       </c>
       <c r="AE16">
-        <v>78.2947265</v>
+        <v>77.78329100000001</v>
       </c>
       <c r="AF16" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG16" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:33">
       <c r="A17">
-        <v>123544</v>
+        <v>124740</v>
       </c>
       <c r="B17" t="s">
         <v>48</v>
       </c>
       <c r="C17">
-        <v>281104</v>
+        <v>283110</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F17">
-        <v>1829</v>
+        <v>2922</v>
       </c>
       <c r="G17">
-        <v>307</v>
+        <v>460</v>
       </c>
       <c r="H17" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="I17" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="J17" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="Q17" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="R17">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="S17">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="T17">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -2526,78 +2484,81 @@
         <v>0</v>
       </c>
       <c r="Z17" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="AA17" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB17" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="AC17" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="AD17">
-        <v>27.569599</v>
+        <v>27.1392655</v>
       </c>
       <c r="AE17">
-        <v>78.0613381</v>
+        <v>77.78329100000001</v>
       </c>
       <c r="AF17" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG17" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:33">
       <c r="A18">
-        <v>123550</v>
+        <v>124741</v>
       </c>
       <c r="B18" t="s">
         <v>49</v>
       </c>
       <c r="C18">
-        <v>281104</v>
+        <v>283110</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E18" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F18">
-        <v>942</v>
+        <v>1389</v>
       </c>
       <c r="G18">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="H18" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="I18" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="J18" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18" t="s">
-        <v>115</v>
+        <v>2</v>
+      </c>
+      <c r="O18" t="s">
+        <v>121</v>
+      </c>
+      <c r="P18" t="s">
+        <v>135</v>
       </c>
       <c r="Q18" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="R18">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="S18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -2612,81 +2573,81 @@
         <v>0</v>
       </c>
       <c r="Y18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="s">
-        <v>211</v>
+        <v>177</v>
       </c>
       <c r="AA18" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB18" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="AC18" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="AD18">
-        <v>27.569599</v>
+        <v>27.1392655</v>
       </c>
       <c r="AE18">
-        <v>78.0613381</v>
+        <v>77.78329100000001</v>
       </c>
       <c r="AF18" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG18" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:33">
       <c r="A19">
-        <v>123550</v>
+        <v>124742</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19">
-        <v>281104</v>
+        <v>283110</v>
       </c>
       <c r="D19" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F19">
-        <v>942</v>
+        <v>1652</v>
       </c>
       <c r="G19">
-        <v>158</v>
+        <v>241</v>
       </c>
       <c r="H19" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="I19" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="J19" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="N19" t="s">
-        <v>144</v>
+        <v>2</v>
+      </c>
+      <c r="L19" t="s">
+        <v>102</v>
       </c>
       <c r="Q19" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="R19">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="S19">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="T19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -2701,81 +2662,81 @@
         <v>0</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z19" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="AA19" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB19" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="AC19" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="AD19">
-        <v>27.466723</v>
+        <v>27.1392655</v>
       </c>
       <c r="AE19">
-        <v>78.2947265</v>
+        <v>77.78329100000001</v>
       </c>
       <c r="AF19" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG19" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:33">
       <c r="A20">
-        <v>123554</v>
+        <v>124745</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20">
-        <v>281104</v>
+        <v>283110</v>
       </c>
       <c r="D20" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E20" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F20">
-        <v>2943</v>
+        <v>1337</v>
       </c>
       <c r="G20">
-        <v>472</v>
+        <v>191</v>
       </c>
       <c r="H20" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="I20" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="J20" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
-      <c r="L20" t="s">
-        <v>116</v>
+      <c r="P20" t="s">
+        <v>136</v>
       </c>
       <c r="Q20" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="R20">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="S20">
         <v>11</v>
       </c>
       <c r="T20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U20">
         <v>0</v>
@@ -2790,85 +2751,82 @@
         <v>0</v>
       </c>
       <c r="Y20">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="AA20" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB20" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="AC20" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="AD20">
-        <v>27.466723</v>
+        <v>27.1392655</v>
       </c>
       <c r="AE20">
-        <v>78.2947265</v>
+        <v>77.78329100000001</v>
       </c>
       <c r="AF20" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG20" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:33">
       <c r="A21">
-        <v>123555</v>
+        <v>124746</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21">
-        <v>281104</v>
+        <v>283110</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F21">
-        <v>963</v>
+        <v>2871</v>
       </c>
       <c r="G21">
-        <v>157</v>
+        <v>466</v>
       </c>
       <c r="H21" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="I21" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="J21" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="O21" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>122</v>
+      </c>
+      <c r="R21">
+        <v>145</v>
+      </c>
+      <c r="S21">
+        <v>6</v>
+      </c>
+      <c r="T21">
         <v>2</v>
       </c>
-      <c r="O21" t="s">
-        <v>147</v>
-      </c>
-      <c r="P21" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>191</v>
-      </c>
-      <c r="R21">
-        <v>105</v>
-      </c>
-      <c r="S21">
-        <v>15</v>
-      </c>
-      <c r="T21">
-        <v>5</v>
-      </c>
       <c r="U21">
         <v>0</v>
       </c>
@@ -2885,84 +2843,81 @@
         <v>0</v>
       </c>
       <c r="Z21" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="AA21" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB21" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="AC21" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="AD21">
-        <v>27.466723</v>
+        <v>27.1392655</v>
       </c>
       <c r="AE21">
-        <v>78.2947265</v>
+        <v>77.78329100000001</v>
       </c>
       <c r="AF21" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG21" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:33">
       <c r="A22">
-        <v>123556</v>
+        <v>124748</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22">
-        <v>281104</v>
+        <v>283110</v>
       </c>
       <c r="D22" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F22">
-        <v>2649</v>
+        <v>454</v>
       </c>
       <c r="G22">
-        <v>410</v>
+        <v>83</v>
       </c>
       <c r="H22" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="I22" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="J22" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="P22" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>137</v>
+      </c>
+      <c r="R22">
+        <v>145</v>
+      </c>
+      <c r="S22">
+        <v>9</v>
+      </c>
+      <c r="T22">
         <v>2</v>
       </c>
-      <c r="L22" t="s">
-        <v>117</v>
-      </c>
-      <c r="P22" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>192</v>
-      </c>
-      <c r="R22">
-        <v>105</v>
-      </c>
-      <c r="S22">
-        <v>23</v>
-      </c>
-      <c r="T22">
-        <v>13</v>
-      </c>
       <c r="U22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -2974,81 +2929,81 @@
         <v>0</v>
       </c>
       <c r="Y22">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z22" t="s">
-        <v>210</v>
+        <v>163</v>
       </c>
       <c r="AA22" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB22" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="AC22" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="AD22">
-        <v>27.466723</v>
+        <v>27.1392655</v>
       </c>
       <c r="AE22">
-        <v>78.2947265</v>
+        <v>77.78329100000001</v>
       </c>
       <c r="AF22" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG22" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:33">
       <c r="A23">
-        <v>123562</v>
+        <v>124759</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23">
-        <v>281104</v>
+        <v>283110</v>
       </c>
       <c r="D23" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23">
+        <v>2905</v>
+      </c>
+      <c r="G23">
+        <v>486</v>
+      </c>
+      <c r="H23" t="s">
+        <v>87</v>
+      </c>
+      <c r="I23" t="s">
+        <v>90</v>
+      </c>
+      <c r="J23" t="s">
+        <v>82</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23" t="s">
         <v>103</v>
       </c>
-      <c r="F23">
-        <v>2067</v>
-      </c>
-      <c r="G23">
-        <v>317</v>
-      </c>
-      <c r="H23" t="s">
-        <v>104</v>
-      </c>
-      <c r="I23" t="s">
-        <v>106</v>
-      </c>
-      <c r="J23" t="s">
-        <v>109</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23" t="s">
-        <v>118</v>
-      </c>
       <c r="Q23" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="R23">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="S23">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="T23">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="U23">
         <v>0</v>
@@ -3063,81 +3018,81 @@
         <v>0</v>
       </c>
       <c r="Y23">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="Z23" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="AA23" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB23" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="AC23" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="AD23">
-        <v>27.466723</v>
+        <v>27.1392655</v>
       </c>
       <c r="AE23">
-        <v>78.2947265</v>
+        <v>77.78329100000001</v>
       </c>
       <c r="AF23" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG23" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:33">
       <c r="A24">
-        <v>123565</v>
+        <v>124765</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C24">
-        <v>281104</v>
+        <v>283110</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E24" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F24">
-        <v>4919</v>
+        <v>5590</v>
       </c>
       <c r="G24">
-        <v>759</v>
+        <v>842</v>
       </c>
       <c r="H24" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="I24" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="J24" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
-      <c r="P24" t="s">
-        <v>167</v>
+      <c r="L24" t="s">
+        <v>104</v>
       </c>
       <c r="Q24" t="s">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="R24">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="T24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U24">
         <v>0</v>
@@ -3152,84 +3107,84 @@
         <v>0</v>
       </c>
       <c r="Y24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z24" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="AA24" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB24" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="AC24" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="AD24">
-        <v>27.466723</v>
+        <v>27.1392655</v>
       </c>
       <c r="AE24">
-        <v>78.2947265</v>
+        <v>77.78329100000001</v>
       </c>
       <c r="AF24" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG24" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:33">
       <c r="A25">
-        <v>124496</v>
+        <v>124767</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C25">
-        <v>283126</v>
+        <v>283110</v>
       </c>
       <c r="D25" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F25">
-        <v>4922</v>
+        <v>4619</v>
       </c>
       <c r="G25">
-        <v>802</v>
+        <v>740</v>
       </c>
       <c r="H25" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="I25" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="J25" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="K25">
         <v>2</v>
       </c>
       <c r="L25" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="Q25" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="R25">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="S25">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="T25">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U25">
         <v>0</v>
@@ -3246,76 +3201,79 @@
       <c r="Y25">
         <v>4</v>
       </c>
+      <c r="Z25" t="s">
+        <v>181</v>
+      </c>
       <c r="AA25" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB25" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="AC25" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD25">
-        <v>27.227812</v>
+        <v>27.1392655</v>
       </c>
       <c r="AE25">
-        <v>78.23042700000001</v>
+        <v>77.78329100000001</v>
       </c>
       <c r="AF25" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG25" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:33">
       <c r="A26">
-        <v>124691</v>
+        <v>124768</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26">
-        <v>282008</v>
+        <v>283110</v>
       </c>
       <c r="D26" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="E26" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F26">
-        <v>7884</v>
+        <v>1250</v>
       </c>
       <c r="G26">
-        <v>1230</v>
+        <v>169</v>
       </c>
       <c r="H26" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="I26" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="J26" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26" t="s">
-        <v>120</v>
+        <v>2</v>
+      </c>
+      <c r="P26" t="s">
+        <v>139</v>
       </c>
       <c r="Q26" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="R26">
         <v>145</v>
       </c>
       <c r="S26">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="T26">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U26">
         <v>0</v>
@@ -3330,16 +3288,19 @@
         <v>0</v>
       </c>
       <c r="Y26">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>173</v>
       </c>
       <c r="AA26" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB26" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="AC26" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="AD26">
         <v>27.1392655</v>
@@ -3348,60 +3309,60 @@
         <v>77.78329100000001</v>
       </c>
       <c r="AF26" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG26" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:33">
       <c r="A27">
-        <v>124700</v>
+        <v>124769</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27">
         <v>283110</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="E27" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F27">
-        <v>3192</v>
+        <v>2826</v>
       </c>
       <c r="G27">
-        <v>514</v>
+        <v>438</v>
       </c>
       <c r="H27" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="I27" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="J27" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="Q27" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="R27">
         <v>145</v>
       </c>
       <c r="S27">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U27">
         <v>0</v>
@@ -3416,16 +3377,19 @@
         <v>0</v>
       </c>
       <c r="Y27">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>172</v>
       </c>
       <c r="AA27" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB27" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="AC27" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="AD27">
         <v>27.1392655</v>
@@ -3434,84 +3398,87 @@
         <v>77.78329100000001</v>
       </c>
       <c r="AF27" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG27" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:33">
       <c r="A28">
-        <v>124709</v>
+        <v>124770</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C28">
-        <v>283110</v>
+        <v>283122</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="E28" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F28">
-        <v>582</v>
+        <v>2854</v>
       </c>
       <c r="G28">
+        <v>439</v>
+      </c>
+      <c r="H28" t="s">
         <v>87</v>
       </c>
-      <c r="H28" t="s">
-        <v>104</v>
-      </c>
       <c r="I28" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="J28" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="K28">
         <v>1</v>
       </c>
       <c r="L28" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="Q28" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="R28">
         <v>145</v>
       </c>
       <c r="S28">
+        <v>11</v>
+      </c>
+      <c r="T28">
+        <v>5</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
         <v>6</v>
       </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
-      <c r="Y28">
-        <v>4</v>
+      <c r="Z28" t="s">
+        <v>182</v>
       </c>
       <c r="AA28" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB28" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="AC28" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="AD28">
         <v>27.1392655</v>
@@ -3520,60 +3487,60 @@
         <v>77.78329100000001</v>
       </c>
       <c r="AF28" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG28" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:33">
       <c r="A29">
-        <v>124711</v>
+        <v>124773</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29">
         <v>283110</v>
       </c>
       <c r="D29" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="E29" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F29">
-        <v>8754</v>
+        <v>895</v>
       </c>
       <c r="G29">
-        <v>1372</v>
+        <v>131</v>
       </c>
       <c r="H29" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="I29" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="J29" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29" t="s">
-        <v>123</v>
+        <v>1</v>
+      </c>
+      <c r="P29" t="s">
+        <v>140</v>
       </c>
       <c r="Q29" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="R29">
         <v>145</v>
       </c>
       <c r="S29">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="T29">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="U29">
         <v>0</v>
@@ -3588,16 +3555,19 @@
         <v>0</v>
       </c>
       <c r="Y29">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>183</v>
       </c>
       <c r="AA29" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB29" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="AC29" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="AD29">
         <v>27.1392655</v>
@@ -3606,60 +3576,60 @@
         <v>77.78329100000001</v>
       </c>
       <c r="AF29" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG29" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:33">
       <c r="A30">
-        <v>124739</v>
+        <v>124774</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C30">
         <v>283110</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="E30" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F30">
-        <v>4446</v>
+        <v>7465</v>
       </c>
       <c r="G30">
-        <v>670</v>
+        <v>1188</v>
       </c>
       <c r="H30" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="I30" t="s">
+        <v>90</v>
+      </c>
+      <c r="J30" t="s">
+        <v>82</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30" t="s">
         <v>108</v>
       </c>
-      <c r="J30" t="s">
-        <v>97</v>
-      </c>
-      <c r="K30">
-        <v>2</v>
-      </c>
-      <c r="P30" t="s">
-        <v>169</v>
-      </c>
       <c r="Q30" t="s">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="R30">
         <v>145</v>
       </c>
       <c r="S30">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="T30">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="U30">
         <v>0</v>
@@ -3674,16 +3644,19 @@
         <v>0</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>167</v>
       </c>
       <c r="AA30" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB30" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="AC30" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="AD30">
         <v>27.1392655</v>
@@ -3692,60 +3665,63 @@
         <v>77.78329100000001</v>
       </c>
       <c r="AF30" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG30" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:33">
       <c r="A31">
-        <v>124740</v>
+        <v>124824</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C31">
-        <v>283110</v>
+        <v>283122</v>
       </c>
       <c r="D31" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="E31" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F31">
-        <v>2922</v>
+        <v>4246</v>
       </c>
       <c r="G31">
-        <v>460</v>
+        <v>683</v>
       </c>
       <c r="H31" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="I31" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="J31" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L31" t="s">
+        <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="Q31" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="R31">
         <v>145</v>
       </c>
       <c r="S31">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="T31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U31">
         <v>0</v>
@@ -3760,16 +3736,19 @@
         <v>0</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>184</v>
       </c>
       <c r="AA31" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB31" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="AC31" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="AD31">
         <v>27.1392655</v>
@@ -3778,63 +3757,63 @@
         <v>77.78329100000001</v>
       </c>
       <c r="AF31" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG31" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:33">
       <c r="A32">
-        <v>124741</v>
+        <v>124835</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C32">
-        <v>283110</v>
+        <v>283122</v>
       </c>
       <c r="D32" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="E32" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F32">
-        <v>1389</v>
+        <v>5990</v>
       </c>
       <c r="G32">
-        <v>209</v>
+        <v>919</v>
       </c>
       <c r="H32" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="I32" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="J32" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="K32">
         <v>2</v>
       </c>
-      <c r="O32" t="s">
-        <v>148</v>
+      <c r="L32" t="s">
+        <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="Q32" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="R32">
         <v>145</v>
       </c>
       <c r="S32">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="T32">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="U32">
         <v>0</v>
@@ -3849,16 +3828,19 @@
         <v>0</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>167</v>
       </c>
       <c r="AA32" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB32" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="AC32" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="AD32">
         <v>27.1392655</v>
@@ -3867,60 +3849,60 @@
         <v>77.78329100000001</v>
       </c>
       <c r="AF32" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG32" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:33">
       <c r="A33">
-        <v>124742</v>
+        <v>124836</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C33">
-        <v>283110</v>
+        <v>283122</v>
       </c>
       <c r="D33" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="E33" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F33">
-        <v>1652</v>
+        <v>3545</v>
       </c>
       <c r="G33">
-        <v>241</v>
+        <v>579</v>
       </c>
       <c r="H33" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="I33" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="J33" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="K33">
         <v>2</v>
       </c>
-      <c r="L33" t="s">
-        <v>124</v>
+      <c r="P33" t="s">
+        <v>143</v>
       </c>
       <c r="Q33" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="R33">
         <v>145</v>
       </c>
       <c r="S33">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="T33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U33">
         <v>0</v>
@@ -3935,16 +3917,19 @@
         <v>0</v>
       </c>
       <c r="Y33">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>185</v>
       </c>
       <c r="AA33" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB33" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="AC33" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="AD33">
         <v>27.1392655</v>
@@ -3953,60 +3938,63 @@
         <v>77.78329100000001</v>
       </c>
       <c r="AF33" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG33" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:33">
       <c r="A34">
-        <v>124745</v>
+        <v>124837</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C34">
-        <v>283110</v>
+        <v>283122</v>
       </c>
       <c r="D34" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="E34" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F34">
-        <v>1337</v>
+        <v>2036</v>
       </c>
       <c r="G34">
-        <v>191</v>
+        <v>357</v>
       </c>
       <c r="H34" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="I34" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="J34" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>120</v>
       </c>
       <c r="P34" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="Q34" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="R34">
         <v>145</v>
       </c>
       <c r="S34">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="T34">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="U34">
         <v>0</v>
@@ -4023,14 +4011,17 @@
       <c r="Y34">
         <v>0</v>
       </c>
+      <c r="Z34" t="s">
+        <v>179</v>
+      </c>
       <c r="AA34" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB34" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="AC34" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="AD34">
         <v>27.1392655</v>
@@ -4039,60 +4030,63 @@
         <v>77.78329100000001</v>
       </c>
       <c r="AF34" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG34" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:33">
       <c r="A35">
-        <v>124746</v>
+        <v>124838</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C35">
-        <v>283110</v>
+        <v>283122</v>
       </c>
       <c r="D35" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="E35" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F35">
-        <v>2871</v>
+        <v>4362</v>
       </c>
       <c r="G35">
-        <v>466</v>
+        <v>698</v>
       </c>
       <c r="H35" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="I35" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="J35" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="O35" t="s">
-        <v>149</v>
+        <v>3</v>
+      </c>
+      <c r="L35" t="s">
+        <v>111</v>
+      </c>
+      <c r="P35" t="s">
+        <v>145</v>
       </c>
       <c r="Q35" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="R35">
         <v>145</v>
       </c>
       <c r="S35">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="T35">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="U35">
         <v>0</v>
@@ -4107,16 +4101,19 @@
         <v>0</v>
       </c>
       <c r="Y35">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>173</v>
       </c>
       <c r="AA35" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB35" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="AC35" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="AD35">
         <v>27.1392655</v>
@@ -4125,63 +4122,63 @@
         <v>77.78329100000001</v>
       </c>
       <c r="AF35" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG35" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:33">
       <c r="A36">
-        <v>124748</v>
+        <v>124839</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C36">
-        <v>283110</v>
+        <v>283122</v>
       </c>
       <c r="D36" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="E36" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F36">
-        <v>454</v>
+        <v>623</v>
       </c>
       <c r="G36">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H36" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="I36" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="J36" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="K36">
         <v>1</v>
       </c>
-      <c r="P36" t="s">
-        <v>173</v>
+      <c r="L36" t="s">
+        <v>112</v>
       </c>
       <c r="Q36" t="s">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="R36">
         <v>145</v>
       </c>
       <c r="S36">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="T36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -4193,16 +4190,19 @@
         <v>0</v>
       </c>
       <c r="Y36">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>175</v>
       </c>
       <c r="AA36" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB36" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="AC36" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="AD36">
         <v>27.1392655</v>
@@ -4211,60 +4211,60 @@
         <v>77.78329100000001</v>
       </c>
       <c r="AF36" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG36" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:33">
       <c r="A37">
-        <v>124759</v>
+        <v>124840</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C37">
-        <v>283110</v>
+        <v>283122</v>
       </c>
       <c r="D37" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="E37" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F37">
-        <v>2905</v>
+        <v>1749</v>
       </c>
       <c r="G37">
-        <v>486</v>
+        <v>269</v>
       </c>
       <c r="H37" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="I37" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="J37" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="K37">
-        <v>2</v>
-      </c>
-      <c r="L37" t="s">
-        <v>125</v>
+        <v>1</v>
+      </c>
+      <c r="P37" t="s">
+        <v>146</v>
       </c>
       <c r="Q37" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="R37">
         <v>145</v>
       </c>
       <c r="S37">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="T37">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="U37">
         <v>0</v>
@@ -4279,16 +4279,19 @@
         <v>0</v>
       </c>
       <c r="Y37">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>174</v>
       </c>
       <c r="AA37" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB37" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="AC37" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="AD37">
         <v>27.1392655</v>
@@ -4297,61 +4300,61 @@
         <v>77.78329100000001</v>
       </c>
       <c r="AF37" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG37" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:33">
       <c r="A38">
-        <v>124765</v>
+        <v>124841</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C38">
-        <v>283110</v>
+        <v>283122</v>
       </c>
       <c r="D38" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="E38" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F38">
-        <v>5590</v>
+        <v>662</v>
       </c>
       <c r="G38">
-        <v>842</v>
+        <v>108</v>
       </c>
       <c r="H38" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="I38" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="J38" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="K38">
         <v>1</v>
       </c>
-      <c r="L38" t="s">
-        <v>126</v>
+      <c r="P38" t="s">
+        <v>147</v>
       </c>
       <c r="Q38" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="R38">
         <v>145</v>
       </c>
       <c r="S38">
+        <v>14</v>
+      </c>
+      <c r="T38">
         <v>12</v>
       </c>
-      <c r="T38">
-        <v>3</v>
-      </c>
       <c r="U38">
         <v>0</v>
       </c>
@@ -4365,16 +4368,19 @@
         <v>0</v>
       </c>
       <c r="Y38">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>186</v>
       </c>
       <c r="AA38" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB38" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="AC38" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="AD38">
         <v>27.1392655</v>
@@ -4383,63 +4389,60 @@
         <v>77.78329100000001</v>
       </c>
       <c r="AF38" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG38" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:33">
       <c r="A39">
-        <v>124767</v>
+        <v>124842</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C39">
         <v>283110</v>
       </c>
       <c r="D39" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="E39" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F39">
-        <v>4619</v>
+        <v>1535</v>
       </c>
       <c r="G39">
-        <v>740</v>
+        <v>247</v>
       </c>
       <c r="H39" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="I39" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="J39" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="K39">
-        <v>2</v>
-      </c>
-      <c r="L39" t="s">
-        <v>127</v>
-      </c>
-      <c r="P39" t="s">
-        <v>174</v>
+        <v>1</v>
+      </c>
+      <c r="O39" t="s">
+        <v>123</v>
       </c>
       <c r="Q39" t="s">
-        <v>195</v>
+        <v>123</v>
       </c>
       <c r="R39">
         <v>145</v>
       </c>
       <c r="S39">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="T39">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="U39">
         <v>0</v>
@@ -4454,16 +4457,19 @@
         <v>0</v>
       </c>
       <c r="Y39">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>187</v>
       </c>
       <c r="AA39" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB39" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="AC39" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="AD39">
         <v>27.1392655</v>
@@ -4472,63 +4478,63 @@
         <v>77.78329100000001</v>
       </c>
       <c r="AF39" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG39" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:33">
       <c r="A40">
-        <v>124768</v>
+        <v>124843</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C40">
-        <v>283110</v>
+        <v>283122</v>
       </c>
       <c r="D40" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="E40" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F40">
-        <v>1250</v>
+        <v>3223</v>
       </c>
       <c r="G40">
-        <v>169</v>
+        <v>494</v>
       </c>
       <c r="H40" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="I40" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="J40" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="K40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="Q40" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="R40">
         <v>145</v>
       </c>
       <c r="S40">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V40">
         <v>0</v>
@@ -4542,14 +4548,17 @@
       <c r="Y40">
         <v>0</v>
       </c>
+      <c r="Z40" t="s">
+        <v>188</v>
+      </c>
       <c r="AA40" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB40" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="AC40" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="AD40">
         <v>27.1392655</v>
@@ -4558,63 +4567,63 @@
         <v>77.78329100000001</v>
       </c>
       <c r="AF40" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG40" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:33">
       <c r="A41">
-        <v>124769</v>
+        <v>124844</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C41">
-        <v>283110</v>
+        <v>283122</v>
       </c>
       <c r="D41" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="E41" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F41">
-        <v>2826</v>
+        <v>1798</v>
       </c>
       <c r="G41">
-        <v>438</v>
+        <v>281</v>
       </c>
       <c r="H41" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="I41" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="J41" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="K41">
         <v>1</v>
       </c>
       <c r="L41" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="Q41" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="R41">
         <v>145</v>
       </c>
       <c r="S41">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="T41">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V41">
         <v>0</v>
@@ -4628,14 +4637,17 @@
       <c r="Y41">
         <v>4</v>
       </c>
+      <c r="Z41" t="s">
+        <v>167</v>
+      </c>
       <c r="AA41" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB41" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="AC41" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="AD41">
         <v>27.1392655</v>
@@ -4644,60 +4656,63 @@
         <v>77.78329100000001</v>
       </c>
       <c r="AF41" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG41" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:33">
       <c r="A42">
-        <v>124770</v>
+        <v>124847</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C42">
         <v>283122</v>
       </c>
       <c r="D42" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="E42" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F42">
-        <v>2854</v>
+        <v>1881</v>
       </c>
       <c r="G42">
-        <v>439</v>
+        <v>264</v>
       </c>
       <c r="H42" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="I42" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="J42" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L42" t="s">
-        <v>129</v>
+        <v>114</v>
+      </c>
+      <c r="O42" t="s">
+        <v>124</v>
       </c>
       <c r="Q42" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="R42">
         <v>145</v>
       </c>
       <c r="S42">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="T42">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="U42">
         <v>0</v>
@@ -4709,19 +4724,22 @@
         <v>0</v>
       </c>
       <c r="X42">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y42">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>189</v>
       </c>
       <c r="AA42" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB42" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="AC42" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="AD42">
         <v>27.1392655</v>
@@ -4730,60 +4748,60 @@
         <v>77.78329100000001</v>
       </c>
       <c r="AF42" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG42" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:33">
       <c r="A43">
-        <v>124773</v>
+        <v>124855</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C43">
-        <v>283110</v>
+        <v>283122</v>
       </c>
       <c r="D43" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="E43" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F43">
-        <v>895</v>
+        <v>3258</v>
       </c>
       <c r="G43">
-        <v>131</v>
+        <v>506</v>
       </c>
       <c r="H43" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="I43" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="J43" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="K43">
         <v>1</v>
       </c>
-      <c r="P43" t="s">
-        <v>176</v>
+      <c r="O43" t="s">
+        <v>125</v>
       </c>
       <c r="Q43" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="R43">
         <v>145</v>
       </c>
       <c r="S43">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="T43">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U43">
         <v>0</v>
@@ -4800,14 +4818,17 @@
       <c r="Y43">
         <v>0</v>
       </c>
+      <c r="Z43" t="s">
+        <v>190</v>
+      </c>
       <c r="AA43" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB43" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="AC43" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="AD43">
         <v>27.1392655</v>
@@ -4816,60 +4837,60 @@
         <v>77.78329100000001</v>
       </c>
       <c r="AF43" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG43" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:33">
       <c r="A44">
-        <v>124774</v>
+        <v>124856</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C44">
-        <v>283110</v>
+        <v>283122</v>
       </c>
       <c r="D44" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="E44" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F44">
-        <v>7465</v>
+        <v>4237</v>
       </c>
       <c r="G44">
-        <v>1188</v>
+        <v>676</v>
       </c>
       <c r="H44" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="I44" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="J44" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="K44">
         <v>1</v>
       </c>
       <c r="L44" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="Q44" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="R44">
         <v>145</v>
       </c>
       <c r="S44">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T44">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U44">
         <v>0</v>
@@ -4884,16 +4905,19 @@
         <v>0</v>
       </c>
       <c r="Y44">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>173</v>
       </c>
       <c r="AA44" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB44" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="AC44" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="AD44">
         <v>27.1392655</v>
@@ -4902,63 +4926,60 @@
         <v>77.78329100000001</v>
       </c>
       <c r="AF44" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG44" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:33">
       <c r="A45">
-        <v>124824</v>
+        <v>124857</v>
       </c>
       <c r="B45" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C45">
         <v>283122</v>
       </c>
       <c r="D45" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="E45" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F45">
-        <v>4246</v>
+        <v>845</v>
       </c>
       <c r="G45">
-        <v>683</v>
+        <v>143</v>
       </c>
       <c r="H45" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="I45" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="J45" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="K45">
-        <v>2</v>
-      </c>
-      <c r="L45" t="s">
-        <v>131</v>
+        <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="Q45" t="s">
-        <v>196</v>
+        <v>149</v>
       </c>
       <c r="R45">
         <v>145</v>
       </c>
       <c r="S45">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="T45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U45">
         <v>0</v>
@@ -4973,16 +4994,19 @@
         <v>0</v>
       </c>
       <c r="Y45">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>191</v>
       </c>
       <c r="AA45" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB45" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="AC45" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="AD45">
         <v>27.1392655</v>
@@ -4991,63 +5015,60 @@
         <v>77.78329100000001</v>
       </c>
       <c r="AF45" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG45" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:33">
       <c r="A46">
-        <v>124835</v>
+        <v>124858</v>
       </c>
       <c r="B46" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C46">
         <v>283122</v>
       </c>
       <c r="D46" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="E46" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F46">
-        <v>5990</v>
+        <v>3037</v>
       </c>
       <c r="G46">
-        <v>919</v>
+        <v>459</v>
       </c>
       <c r="H46" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="I46" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="J46" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L46" t="s">
-        <v>132</v>
-      </c>
-      <c r="P46" t="s">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="Q46" t="s">
-        <v>197</v>
+        <v>116</v>
       </c>
       <c r="R46">
         <v>145</v>
       </c>
       <c r="S46">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="T46">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="U46">
         <v>0</v>
@@ -5062,16 +5083,19 @@
         <v>0</v>
       </c>
       <c r="Y46">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>163</v>
       </c>
       <c r="AA46" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB46" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="AC46" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="AD46">
         <v>27.1392655</v>
@@ -5080,60 +5104,60 @@
         <v>77.78329100000001</v>
       </c>
       <c r="AF46" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG46" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:33">
       <c r="A47">
-        <v>124836</v>
+        <v>124859</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C47">
         <v>283122</v>
       </c>
       <c r="D47" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="E47" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F47">
-        <v>3545</v>
+        <v>3864</v>
       </c>
       <c r="G47">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="H47" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="I47" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="J47" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="K47">
-        <v>2</v>
-      </c>
-      <c r="P47" t="s">
-        <v>179</v>
+        <v>1</v>
+      </c>
+      <c r="L47" t="s">
+        <v>117</v>
       </c>
       <c r="Q47" t="s">
-        <v>179</v>
+        <v>117</v>
       </c>
       <c r="R47">
         <v>145</v>
       </c>
       <c r="S47">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U47">
         <v>0</v>
@@ -5148,16 +5172,19 @@
         <v>0</v>
       </c>
       <c r="Y47">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>192</v>
       </c>
       <c r="AA47" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB47" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="AC47" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="AD47">
         <v>27.1392655</v>
@@ -5166,87 +5193,87 @@
         <v>77.78329100000001</v>
       </c>
       <c r="AF47" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG47" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:33">
       <c r="A48">
-        <v>124837</v>
+        <v>124864</v>
       </c>
       <c r="B48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C48">
         <v>283122</v>
       </c>
       <c r="D48" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="E48" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F48">
-        <v>2036</v>
+        <v>2842</v>
       </c>
       <c r="G48">
-        <v>357</v>
+        <v>429</v>
       </c>
       <c r="H48" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="I48" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="J48" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="K48">
-        <v>3</v>
-      </c>
-      <c r="N48" t="s">
-        <v>145</v>
-      </c>
-      <c r="P48" t="s">
-        <v>180</v>
+        <v>1</v>
+      </c>
+      <c r="L48" t="s">
+        <v>118</v>
       </c>
       <c r="Q48" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="R48">
         <v>145</v>
       </c>
       <c r="S48">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="T48">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="U48">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V48">
         <v>0</v>
       </c>
       <c r="W48">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X48">
         <v>0</v>
       </c>
       <c r="Y48">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>171</v>
       </c>
       <c r="AA48" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB48" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="AC48" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="AD48">
         <v>27.1392655</v>
@@ -5255,66 +5282,63 @@
         <v>77.78329100000001</v>
       </c>
       <c r="AF48" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG48" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:33">
       <c r="A49">
-        <v>124838</v>
+        <v>124868</v>
       </c>
       <c r="B49" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C49">
         <v>283122</v>
       </c>
       <c r="D49" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="E49" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F49">
-        <v>4362</v>
+        <v>3462</v>
       </c>
       <c r="G49">
-        <v>698</v>
+        <v>544</v>
       </c>
       <c r="H49" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="I49" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="J49" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="K49">
-        <v>3</v>
-      </c>
-      <c r="L49" t="s">
-        <v>133</v>
+        <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="Q49" t="s">
-        <v>199</v>
+        <v>150</v>
       </c>
       <c r="R49">
         <v>145</v>
       </c>
       <c r="S49">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="T49">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="U49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V49">
         <v>0</v>
@@ -5323,19 +5347,22 @@
         <v>0</v>
       </c>
       <c r="X49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y49">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>163</v>
       </c>
       <c r="AA49" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB49" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="AC49" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="AD49">
         <v>27.1392655</v>
@@ -5344,149 +5371,155 @@
         <v>77.78329100000001</v>
       </c>
       <c r="AF49" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG49" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:33">
       <c r="A50">
-        <v>124839</v>
+        <v>800769</v>
       </c>
       <c r="B50" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C50">
-        <v>283122</v>
+        <v>202128</v>
       </c>
       <c r="D50" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="E50" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F50">
-        <v>623</v>
+        <v>20238</v>
       </c>
       <c r="G50">
-        <v>90</v>
+        <v>3358</v>
       </c>
       <c r="H50" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="I50" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="J50" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="K50">
         <v>1</v>
       </c>
       <c r="L50" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="Q50" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="R50">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="S50">
+        <v>52</v>
+      </c>
+      <c r="T50">
+        <v>30</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
         <v>16</v>
       </c>
-      <c r="T50">
-        <v>4</v>
-      </c>
-      <c r="U50">
-        <v>0</v>
-      </c>
-      <c r="V50">
-        <v>0</v>
-      </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-      <c r="X50">
-        <v>0</v>
-      </c>
-      <c r="Y50">
-        <v>4</v>
+      <c r="Z50" t="s">
+        <v>193</v>
       </c>
       <c r="AA50" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB50" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="AC50" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="AD50">
-        <v>27.1392655</v>
+        <v>27.9150648</v>
       </c>
       <c r="AE50">
-        <v>77.78329100000001</v>
+        <v>78.11350040000001</v>
       </c>
       <c r="AF50" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG50" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:33">
       <c r="A51">
-        <v>124840</v>
+        <v>800807</v>
       </c>
       <c r="B51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C51">
         <v>283122</v>
       </c>
       <c r="D51" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="E51" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F51">
-        <v>1749</v>
+        <v>23788</v>
       </c>
       <c r="G51">
-        <v>269</v>
+        <v>3423</v>
       </c>
       <c r="H51" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="I51" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="J51" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="O51" t="s">
+        <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="Q51" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="R51">
         <v>145</v>
       </c>
       <c r="S51">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="T51">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="U51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V51">
         <v>0</v>
@@ -5500,14 +5533,17 @@
       <c r="Y51">
         <v>0</v>
       </c>
+      <c r="Z51" t="s">
+        <v>179</v>
+      </c>
       <c r="AA51" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB51" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="AC51" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="AD51">
         <v>27.1392655</v>
@@ -5516,60 +5552,63 @@
         <v>77.78329100000001</v>
       </c>
       <c r="AF51" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG51" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52" spans="1:33">
       <c r="A52">
-        <v>124841</v>
+        <v>800808</v>
       </c>
       <c r="B52" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C52">
-        <v>283122</v>
+        <v>283110</v>
       </c>
       <c r="D52" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F52">
-        <v>662</v>
+        <v>32905</v>
       </c>
       <c r="G52">
-        <v>108</v>
+        <v>4936</v>
       </c>
       <c r="H52" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="I52" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="J52" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="K52">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="O52" t="s">
+        <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="Q52" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="R52">
         <v>145</v>
       </c>
       <c r="S52">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T52">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="U52">
         <v>0</v>
@@ -5586,14 +5625,17 @@
       <c r="Y52">
         <v>0</v>
       </c>
+      <c r="Z52" t="s">
+        <v>194</v>
+      </c>
       <c r="AA52" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AB52" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="AC52" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="AD52">
         <v>27.1392655</v>
@@ -5602,1407 +5644,10 @@
         <v>77.78329100000001</v>
       </c>
       <c r="AF52" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AG52" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="53" spans="1:33">
-      <c r="A53">
-        <v>124842</v>
-      </c>
-      <c r="B53" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53">
-        <v>283110</v>
-      </c>
-      <c r="D53" t="s">
-        <v>101</v>
-      </c>
-      <c r="E53" t="s">
-        <v>103</v>
-      </c>
-      <c r="F53">
-        <v>1535</v>
-      </c>
-      <c r="G53">
-        <v>247</v>
-      </c>
-      <c r="H53" t="s">
-        <v>104</v>
-      </c>
-      <c r="I53" t="s">
-        <v>108</v>
-      </c>
-      <c r="J53" t="s">
-        <v>97</v>
-      </c>
-      <c r="K53">
-        <v>1</v>
-      </c>
-      <c r="O53" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>150</v>
-      </c>
-      <c r="R53">
-        <v>145</v>
-      </c>
-      <c r="S53">
-        <v>32</v>
-      </c>
-      <c r="T53">
-        <v>22</v>
-      </c>
-      <c r="U53">
-        <v>0</v>
-      </c>
-      <c r="V53">
-        <v>0</v>
-      </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-      <c r="X53">
-        <v>0</v>
-      </c>
-      <c r="Y53">
-        <v>0</v>
-      </c>
-      <c r="AA53" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB53" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC53" t="s">
-        <v>223</v>
-      </c>
-      <c r="AD53">
-        <v>27.1392655</v>
-      </c>
-      <c r="AE53">
-        <v>77.78329100000001</v>
-      </c>
-      <c r="AF53" t="s">
-        <v>224</v>
-      </c>
-      <c r="AG53" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="54" spans="1:33">
-      <c r="A54">
-        <v>124843</v>
-      </c>
-      <c r="B54" t="s">
-        <v>84</v>
-      </c>
-      <c r="C54">
-        <v>283122</v>
-      </c>
-      <c r="D54" t="s">
-        <v>101</v>
-      </c>
-      <c r="E54" t="s">
-        <v>103</v>
-      </c>
-      <c r="F54">
-        <v>3223</v>
-      </c>
-      <c r="G54">
-        <v>494</v>
-      </c>
-      <c r="H54" t="s">
-        <v>104</v>
-      </c>
-      <c r="I54" t="s">
-        <v>106</v>
-      </c>
-      <c r="J54" t="s">
-        <v>97</v>
-      </c>
-      <c r="K54">
-        <v>1</v>
-      </c>
-      <c r="P54" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>184</v>
-      </c>
-      <c r="R54">
-        <v>145</v>
-      </c>
-      <c r="S54">
-        <v>5</v>
-      </c>
-      <c r="T54">
-        <v>3</v>
-      </c>
-      <c r="U54">
-        <v>0</v>
-      </c>
-      <c r="V54">
-        <v>0</v>
-      </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
-      <c r="X54">
-        <v>0</v>
-      </c>
-      <c r="Y54">
-        <v>0</v>
-      </c>
-      <c r="AA54" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB54" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC54" t="s">
-        <v>223</v>
-      </c>
-      <c r="AD54">
-        <v>27.1392655</v>
-      </c>
-      <c r="AE54">
-        <v>77.78329100000001</v>
-      </c>
-      <c r="AF54" t="s">
-        <v>224</v>
-      </c>
-      <c r="AG54" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="55" spans="1:33">
-      <c r="A55">
-        <v>124844</v>
-      </c>
-      <c r="B55" t="s">
-        <v>85</v>
-      </c>
-      <c r="C55">
-        <v>283122</v>
-      </c>
-      <c r="D55" t="s">
-        <v>101</v>
-      </c>
-      <c r="E55" t="s">
-        <v>103</v>
-      </c>
-      <c r="F55">
-        <v>1798</v>
-      </c>
-      <c r="G55">
-        <v>281</v>
-      </c>
-      <c r="H55" t="s">
-        <v>104</v>
-      </c>
-      <c r="I55" t="s">
-        <v>106</v>
-      </c>
-      <c r="J55" t="s">
-        <v>97</v>
-      </c>
-      <c r="K55">
-        <v>1</v>
-      </c>
-      <c r="L55" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>135</v>
-      </c>
-      <c r="R55">
-        <v>145</v>
-      </c>
-      <c r="S55">
-        <v>17</v>
-      </c>
-      <c r="T55">
-        <v>7</v>
-      </c>
-      <c r="U55">
-        <v>0</v>
-      </c>
-      <c r="V55">
-        <v>0</v>
-      </c>
-      <c r="W55">
-        <v>0</v>
-      </c>
-      <c r="X55">
-        <v>0</v>
-      </c>
-      <c r="Y55">
-        <v>4</v>
-      </c>
-      <c r="AA55" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB55" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC55" t="s">
-        <v>223</v>
-      </c>
-      <c r="AD55">
-        <v>27.1392655</v>
-      </c>
-      <c r="AE55">
-        <v>77.78329100000001</v>
-      </c>
-      <c r="AF55" t="s">
-        <v>224</v>
-      </c>
-      <c r="AG55" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="56" spans="1:33">
-      <c r="A56">
-        <v>124847</v>
-      </c>
-      <c r="B56" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56">
-        <v>283122</v>
-      </c>
-      <c r="D56" t="s">
-        <v>101</v>
-      </c>
-      <c r="E56" t="s">
-        <v>103</v>
-      </c>
-      <c r="F56">
-        <v>1881</v>
-      </c>
-      <c r="G56">
-        <v>264</v>
-      </c>
-      <c r="H56" t="s">
-        <v>104</v>
-      </c>
-      <c r="I56" t="s">
-        <v>106</v>
-      </c>
-      <c r="J56" t="s">
-        <v>97</v>
-      </c>
-      <c r="K56">
-        <v>1</v>
-      </c>
-      <c r="L56" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>136</v>
-      </c>
-      <c r="R56">
-        <v>145</v>
-      </c>
-      <c r="S56">
-        <v>18</v>
-      </c>
-      <c r="T56">
-        <v>12</v>
-      </c>
-      <c r="U56">
-        <v>0</v>
-      </c>
-      <c r="V56">
-        <v>0</v>
-      </c>
-      <c r="W56">
-        <v>0</v>
-      </c>
-      <c r="X56">
-        <v>0</v>
-      </c>
-      <c r="Y56">
-        <v>4</v>
-      </c>
-      <c r="AA56" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB56" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC56" t="s">
-        <v>223</v>
-      </c>
-      <c r="AD56">
-        <v>27.1392655</v>
-      </c>
-      <c r="AE56">
-        <v>77.78329100000001</v>
-      </c>
-      <c r="AF56" t="s">
-        <v>224</v>
-      </c>
-      <c r="AG56" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="57" spans="1:33">
-      <c r="A57">
-        <v>124855</v>
-      </c>
-      <c r="B57" t="s">
-        <v>87</v>
-      </c>
-      <c r="C57">
-        <v>283122</v>
-      </c>
-      <c r="D57" t="s">
-        <v>101</v>
-      </c>
-      <c r="E57" t="s">
-        <v>103</v>
-      </c>
-      <c r="F57">
-        <v>3258</v>
-      </c>
-      <c r="G57">
-        <v>506</v>
-      </c>
-      <c r="H57" t="s">
-        <v>104</v>
-      </c>
-      <c r="I57" t="s">
-        <v>106</v>
-      </c>
-      <c r="J57" t="s">
-        <v>97</v>
-      </c>
-      <c r="K57">
-        <v>1</v>
-      </c>
-      <c r="O57" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>151</v>
-      </c>
-      <c r="R57">
-        <v>145</v>
-      </c>
-      <c r="S57">
-        <v>12</v>
-      </c>
-      <c r="T57">
-        <v>7</v>
-      </c>
-      <c r="U57">
-        <v>0</v>
-      </c>
-      <c r="V57">
-        <v>0</v>
-      </c>
-      <c r="W57">
-        <v>0</v>
-      </c>
-      <c r="X57">
-        <v>5</v>
-      </c>
-      <c r="Y57">
-        <v>0</v>
-      </c>
-      <c r="AA57" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB57" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC57" t="s">
-        <v>223</v>
-      </c>
-      <c r="AD57">
-        <v>27.1392655</v>
-      </c>
-      <c r="AE57">
-        <v>77.78329100000001</v>
-      </c>
-      <c r="AF57" t="s">
-        <v>224</v>
-      </c>
-      <c r="AG57" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="58" spans="1:33">
-      <c r="A58">
-        <v>124856</v>
-      </c>
-      <c r="B58" t="s">
-        <v>88</v>
-      </c>
-      <c r="C58">
-        <v>283122</v>
-      </c>
-      <c r="D58" t="s">
-        <v>101</v>
-      </c>
-      <c r="E58" t="s">
-        <v>103</v>
-      </c>
-      <c r="F58">
-        <v>4237</v>
-      </c>
-      <c r="G58">
-        <v>676</v>
-      </c>
-      <c r="H58" t="s">
-        <v>104</v>
-      </c>
-      <c r="I58" t="s">
-        <v>106</v>
-      </c>
-      <c r="J58" t="s">
-        <v>97</v>
-      </c>
-      <c r="K58">
-        <v>1</v>
-      </c>
-      <c r="L58" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>137</v>
-      </c>
-      <c r="R58">
-        <v>145</v>
-      </c>
-      <c r="S58">
-        <v>10</v>
-      </c>
-      <c r="T58">
-        <v>2</v>
-      </c>
-      <c r="U58">
-        <v>0</v>
-      </c>
-      <c r="V58">
-        <v>0</v>
-      </c>
-      <c r="W58">
-        <v>0</v>
-      </c>
-      <c r="X58">
-        <v>0</v>
-      </c>
-      <c r="Y58">
-        <v>7</v>
-      </c>
-      <c r="AA58" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB58" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC58" t="s">
-        <v>223</v>
-      </c>
-      <c r="AD58">
-        <v>27.1392655</v>
-      </c>
-      <c r="AE58">
-        <v>77.78329100000001</v>
-      </c>
-      <c r="AF58" t="s">
-        <v>224</v>
-      </c>
-      <c r="AG58" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="59" spans="1:33">
-      <c r="A59">
-        <v>124857</v>
-      </c>
-      <c r="B59" t="s">
-        <v>89</v>
-      </c>
-      <c r="C59">
-        <v>283122</v>
-      </c>
-      <c r="D59" t="s">
-        <v>101</v>
-      </c>
-      <c r="E59" t="s">
-        <v>103</v>
-      </c>
-      <c r="F59">
-        <v>845</v>
-      </c>
-      <c r="G59">
-        <v>143</v>
-      </c>
-      <c r="H59" t="s">
-        <v>104</v>
-      </c>
-      <c r="I59" t="s">
-        <v>106</v>
-      </c>
-      <c r="J59" t="s">
-        <v>97</v>
-      </c>
-      <c r="K59">
-        <v>1</v>
-      </c>
-      <c r="P59" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>185</v>
-      </c>
-      <c r="R59">
-        <v>145</v>
-      </c>
-      <c r="S59">
-        <v>5</v>
-      </c>
-      <c r="T59">
-        <v>5</v>
-      </c>
-      <c r="U59">
-        <v>0</v>
-      </c>
-      <c r="V59">
-        <v>0</v>
-      </c>
-      <c r="W59">
-        <v>0</v>
-      </c>
-      <c r="X59">
-        <v>0</v>
-      </c>
-      <c r="Y59">
-        <v>0</v>
-      </c>
-      <c r="AA59" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB59" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC59" t="s">
-        <v>223</v>
-      </c>
-      <c r="AD59">
-        <v>27.1392655</v>
-      </c>
-      <c r="AE59">
-        <v>77.78329100000001</v>
-      </c>
-      <c r="AF59" t="s">
-        <v>224</v>
-      </c>
-      <c r="AG59" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="60" spans="1:33">
-      <c r="A60">
-        <v>124858</v>
-      </c>
-      <c r="B60" t="s">
-        <v>90</v>
-      </c>
-      <c r="C60">
-        <v>283122</v>
-      </c>
-      <c r="D60" t="s">
-        <v>101</v>
-      </c>
-      <c r="E60" t="s">
-        <v>103</v>
-      </c>
-      <c r="F60">
-        <v>3037</v>
-      </c>
-      <c r="G60">
-        <v>459</v>
-      </c>
-      <c r="H60" t="s">
-        <v>104</v>
-      </c>
-      <c r="I60" t="s">
-        <v>106</v>
-      </c>
-      <c r="J60" t="s">
-        <v>97</v>
-      </c>
-      <c r="K60">
-        <v>1</v>
-      </c>
-      <c r="L60" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>138</v>
-      </c>
-      <c r="R60">
-        <v>145</v>
-      </c>
-      <c r="S60">
-        <v>7</v>
-      </c>
-      <c r="T60">
-        <v>2</v>
-      </c>
-      <c r="U60">
-        <v>0</v>
-      </c>
-      <c r="V60">
-        <v>0</v>
-      </c>
-      <c r="W60">
-        <v>0</v>
-      </c>
-      <c r="X60">
-        <v>0</v>
-      </c>
-      <c r="Y60">
-        <v>0</v>
-      </c>
-      <c r="AA60" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB60" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC60" t="s">
-        <v>223</v>
-      </c>
-      <c r="AD60">
-        <v>27.1392655</v>
-      </c>
-      <c r="AE60">
-        <v>77.78329100000001</v>
-      </c>
-      <c r="AF60" t="s">
-        <v>224</v>
-      </c>
-      <c r="AG60" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="61" spans="1:33">
-      <c r="A61">
-        <v>124859</v>
-      </c>
-      <c r="B61" t="s">
-        <v>91</v>
-      </c>
-      <c r="C61">
-        <v>283122</v>
-      </c>
-      <c r="D61" t="s">
-        <v>101</v>
-      </c>
-      <c r="E61" t="s">
-        <v>103</v>
-      </c>
-      <c r="F61">
-        <v>3864</v>
-      </c>
-      <c r="G61">
-        <v>590</v>
-      </c>
-      <c r="H61" t="s">
-        <v>104</v>
-      </c>
-      <c r="I61" t="s">
-        <v>106</v>
-      </c>
-      <c r="J61" t="s">
-        <v>97</v>
-      </c>
-      <c r="K61">
-        <v>1</v>
-      </c>
-      <c r="L61" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>139</v>
-      </c>
-      <c r="R61">
-        <v>145</v>
-      </c>
-      <c r="S61">
-        <v>9</v>
-      </c>
-      <c r="T61">
-        <v>4</v>
-      </c>
-      <c r="U61">
-        <v>1</v>
-      </c>
-      <c r="V61">
-        <v>0</v>
-      </c>
-      <c r="W61">
-        <v>0</v>
-      </c>
-      <c r="X61">
-        <v>0</v>
-      </c>
-      <c r="Y61">
-        <v>4</v>
-      </c>
-      <c r="AA61" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB61" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC61" t="s">
-        <v>223</v>
-      </c>
-      <c r="AD61">
-        <v>27.1392655</v>
-      </c>
-      <c r="AE61">
-        <v>77.78329100000001</v>
-      </c>
-      <c r="AF61" t="s">
-        <v>224</v>
-      </c>
-      <c r="AG61" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="62" spans="1:33">
-      <c r="A62">
-        <v>124864</v>
-      </c>
-      <c r="B62" t="s">
-        <v>92</v>
-      </c>
-      <c r="C62">
-        <v>283122</v>
-      </c>
-      <c r="D62" t="s">
-        <v>101</v>
-      </c>
-      <c r="E62" t="s">
-        <v>103</v>
-      </c>
-      <c r="F62">
-        <v>2842</v>
-      </c>
-      <c r="G62">
-        <v>429</v>
-      </c>
-      <c r="H62" t="s">
-        <v>104</v>
-      </c>
-      <c r="I62" t="s">
-        <v>106</v>
-      </c>
-      <c r="J62" t="s">
-        <v>97</v>
-      </c>
-      <c r="K62">
-        <v>1</v>
-      </c>
-      <c r="L62" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>140</v>
-      </c>
-      <c r="R62">
-        <v>145</v>
-      </c>
-      <c r="S62">
-        <v>11</v>
-      </c>
-      <c r="T62">
-        <v>6</v>
-      </c>
-      <c r="U62">
-        <v>0</v>
-      </c>
-      <c r="V62">
-        <v>0</v>
-      </c>
-      <c r="W62">
-        <v>0</v>
-      </c>
-      <c r="X62">
-        <v>0</v>
-      </c>
-      <c r="Y62">
-        <v>4</v>
-      </c>
-      <c r="AA62" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB62" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC62" t="s">
-        <v>223</v>
-      </c>
-      <c r="AD62">
-        <v>27.1392655</v>
-      </c>
-      <c r="AE62">
-        <v>77.78329100000001</v>
-      </c>
-      <c r="AF62" t="s">
-        <v>224</v>
-      </c>
-      <c r="AG62" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="63" spans="1:33">
-      <c r="A63">
-        <v>124868</v>
-      </c>
-      <c r="B63" t="s">
-        <v>93</v>
-      </c>
-      <c r="C63">
-        <v>283122</v>
-      </c>
-      <c r="D63" t="s">
-        <v>101</v>
-      </c>
-      <c r="E63" t="s">
-        <v>103</v>
-      </c>
-      <c r="F63">
-        <v>3462</v>
-      </c>
-      <c r="G63">
-        <v>544</v>
-      </c>
-      <c r="H63" t="s">
-        <v>104</v>
-      </c>
-      <c r="I63" t="s">
-        <v>106</v>
-      </c>
-      <c r="J63" t="s">
-        <v>97</v>
-      </c>
-      <c r="K63">
-        <v>1</v>
-      </c>
-      <c r="P63" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>186</v>
-      </c>
-      <c r="R63">
-        <v>145</v>
-      </c>
-      <c r="S63">
-        <v>6</v>
-      </c>
-      <c r="T63">
-        <v>4</v>
-      </c>
-      <c r="U63">
-        <v>2</v>
-      </c>
-      <c r="V63">
-        <v>0</v>
-      </c>
-      <c r="W63">
-        <v>0</v>
-      </c>
-      <c r="X63">
-        <v>0</v>
-      </c>
-      <c r="Y63">
-        <v>0</v>
-      </c>
-      <c r="AA63" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB63" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC63" t="s">
-        <v>223</v>
-      </c>
-      <c r="AD63">
-        <v>27.1392655</v>
-      </c>
-      <c r="AE63">
-        <v>77.78329100000001</v>
-      </c>
-      <c r="AF63" t="s">
-        <v>224</v>
-      </c>
-      <c r="AG63" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="64" spans="1:33">
-      <c r="A64">
-        <v>215169</v>
-      </c>
-      <c r="B64" t="s">
-        <v>94</v>
-      </c>
-      <c r="C64">
-        <v>281104</v>
-      </c>
-      <c r="D64" t="s">
-        <v>102</v>
-      </c>
-      <c r="E64" t="s">
-        <v>103</v>
-      </c>
-      <c r="F64">
-        <v>1438</v>
-      </c>
-      <c r="G64">
-        <v>216</v>
-      </c>
-      <c r="H64" t="s">
-        <v>104</v>
-      </c>
-      <c r="I64" t="s">
-        <v>106</v>
-      </c>
-      <c r="J64" t="s">
-        <v>109</v>
-      </c>
-      <c r="K64">
-        <v>4</v>
-      </c>
-      <c r="L64" t="s">
-        <v>141</v>
-      </c>
-      <c r="O64" t="s">
-        <v>152</v>
-      </c>
-      <c r="P64" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q64" t="s">
         <v>200</v>
-      </c>
-      <c r="R64">
-        <v>105</v>
-      </c>
-      <c r="S64">
-        <v>41</v>
-      </c>
-      <c r="T64">
-        <v>9</v>
-      </c>
-      <c r="U64">
-        <v>2</v>
-      </c>
-      <c r="V64">
-        <v>0</v>
-      </c>
-      <c r="W64">
-        <v>6</v>
-      </c>
-      <c r="X64">
-        <v>0</v>
-      </c>
-      <c r="Y64">
-        <v>8</v>
-      </c>
-      <c r="Z64" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA64" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB64" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC64" t="s">
-        <v>221</v>
-      </c>
-      <c r="AD64">
-        <v>27.466723</v>
-      </c>
-      <c r="AE64">
-        <v>78.2947265</v>
-      </c>
-      <c r="AF64" t="s">
-        <v>224</v>
-      </c>
-      <c r="AG64" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="65" spans="1:33">
-      <c r="A65">
-        <v>215170</v>
-      </c>
-      <c r="B65" t="s">
-        <v>95</v>
-      </c>
-      <c r="C65">
-        <v>281104</v>
-      </c>
-      <c r="D65" t="s">
-        <v>102</v>
-      </c>
-      <c r="E65" t="s">
-        <v>103</v>
-      </c>
-      <c r="F65">
-        <v>3647</v>
-      </c>
-      <c r="G65">
-        <v>590</v>
-      </c>
-      <c r="H65" t="s">
-        <v>104</v>
-      </c>
-      <c r="I65" t="s">
-        <v>106</v>
-      </c>
-      <c r="J65" t="s">
-        <v>109</v>
-      </c>
-      <c r="K65">
-        <v>5</v>
-      </c>
-      <c r="L65" t="s">
-        <v>142</v>
-      </c>
-      <c r="P65" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>201</v>
-      </c>
-      <c r="R65">
-        <v>105</v>
-      </c>
-      <c r="S65">
-        <v>57</v>
-      </c>
-      <c r="T65">
-        <v>9</v>
-      </c>
-      <c r="U65">
-        <v>0</v>
-      </c>
-      <c r="V65">
-        <v>0</v>
-      </c>
-      <c r="W65">
-        <v>0</v>
-      </c>
-      <c r="X65">
-        <v>0</v>
-      </c>
-      <c r="Y65">
-        <v>19</v>
-      </c>
-      <c r="Z65" t="s">
-        <v>217</v>
-      </c>
-      <c r="AA65" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB65" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC65" t="s">
-        <v>221</v>
-      </c>
-      <c r="AD65">
-        <v>27.466723</v>
-      </c>
-      <c r="AE65">
-        <v>78.2947265</v>
-      </c>
-      <c r="AF65" t="s">
-        <v>224</v>
-      </c>
-      <c r="AG65" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="66" spans="1:33">
-      <c r="A66">
-        <v>800769</v>
-      </c>
-      <c r="B66" t="s">
-        <v>96</v>
-      </c>
-      <c r="C66">
-        <v>202128</v>
-      </c>
-      <c r="D66" t="s">
-        <v>99</v>
-      </c>
-      <c r="E66" t="s">
-        <v>103</v>
-      </c>
-      <c r="F66">
-        <v>20238</v>
-      </c>
-      <c r="G66">
-        <v>3358</v>
-      </c>
-      <c r="H66" t="s">
-        <v>105</v>
-      </c>
-      <c r="I66" t="s">
-        <v>106</v>
-      </c>
-      <c r="J66" t="s">
-        <v>99</v>
-      </c>
-      <c r="K66">
-        <v>1</v>
-      </c>
-      <c r="L66" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>143</v>
-      </c>
-      <c r="R66">
-        <v>118</v>
-      </c>
-      <c r="S66">
-        <v>52</v>
-      </c>
-      <c r="T66">
-        <v>30</v>
-      </c>
-      <c r="U66">
-        <v>0</v>
-      </c>
-      <c r="V66">
-        <v>0</v>
-      </c>
-      <c r="W66">
-        <v>0</v>
-      </c>
-      <c r="X66">
-        <v>0</v>
-      </c>
-      <c r="Y66">
-        <v>16</v>
-      </c>
-      <c r="AA66" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB66" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC66" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD66">
-        <v>27.9150648</v>
-      </c>
-      <c r="AE66">
-        <v>78.11350040000001</v>
-      </c>
-      <c r="AF66" t="s">
-        <v>224</v>
-      </c>
-      <c r="AG66" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="67" spans="1:33">
-      <c r="A67">
-        <v>800807</v>
-      </c>
-      <c r="B67" t="s">
-        <v>97</v>
-      </c>
-      <c r="C67">
-        <v>283122</v>
-      </c>
-      <c r="D67" t="s">
-        <v>101</v>
-      </c>
-      <c r="E67" t="s">
-        <v>103</v>
-      </c>
-      <c r="F67">
-        <v>23788</v>
-      </c>
-      <c r="G67">
-        <v>3423</v>
-      </c>
-      <c r="H67" t="s">
-        <v>105</v>
-      </c>
-      <c r="I67" t="s">
-        <v>106</v>
-      </c>
-      <c r="J67" t="s">
-        <v>97</v>
-      </c>
-      <c r="K67">
-        <v>8</v>
-      </c>
-      <c r="O67" t="s">
-        <v>153</v>
-      </c>
-      <c r="P67" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>202</v>
-      </c>
-      <c r="R67">
-        <v>145</v>
-      </c>
-      <c r="S67">
-        <v>44</v>
-      </c>
-      <c r="T67">
-        <v>26</v>
-      </c>
-      <c r="U67">
-        <v>0</v>
-      </c>
-      <c r="V67">
-        <v>0</v>
-      </c>
-      <c r="W67">
-        <v>0</v>
-      </c>
-      <c r="X67">
-        <v>0</v>
-      </c>
-      <c r="Y67">
-        <v>0</v>
-      </c>
-      <c r="AA67" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB67" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC67" t="s">
-        <v>223</v>
-      </c>
-      <c r="AD67">
-        <v>27.1392655</v>
-      </c>
-      <c r="AE67">
-        <v>77.78329100000001</v>
-      </c>
-      <c r="AF67" t="s">
-        <v>224</v>
-      </c>
-      <c r="AG67" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="68" spans="1:33">
-      <c r="A68">
-        <v>800808</v>
-      </c>
-      <c r="B68" t="s">
-        <v>98</v>
-      </c>
-      <c r="C68">
-        <v>283110</v>
-      </c>
-      <c r="D68" t="s">
-        <v>101</v>
-      </c>
-      <c r="E68" t="s">
-        <v>103</v>
-      </c>
-      <c r="F68">
-        <v>32905</v>
-      </c>
-      <c r="G68">
-        <v>4936</v>
-      </c>
-      <c r="H68" t="s">
-        <v>105</v>
-      </c>
-      <c r="I68" t="s">
-        <v>108</v>
-      </c>
-      <c r="J68" t="s">
-        <v>97</v>
-      </c>
-      <c r="K68">
-        <v>2</v>
-      </c>
-      <c r="O68" t="s">
-        <v>154</v>
-      </c>
-      <c r="P68" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>203</v>
-      </c>
-      <c r="R68">
-        <v>145</v>
-      </c>
-      <c r="S68">
-        <v>12</v>
-      </c>
-      <c r="T68">
-        <v>5</v>
-      </c>
-      <c r="U68">
-        <v>0</v>
-      </c>
-      <c r="V68">
-        <v>0</v>
-      </c>
-      <c r="W68">
-        <v>0</v>
-      </c>
-      <c r="X68">
-        <v>0</v>
-      </c>
-      <c r="Y68">
-        <v>0</v>
-      </c>
-      <c r="AA68" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB68" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC68" t="s">
-        <v>223</v>
-      </c>
-      <c r="AD68">
-        <v>27.1392655</v>
-      </c>
-      <c r="AE68">
-        <v>77.78329100000001</v>
-      </c>
-      <c r="AF68" t="s">
-        <v>224</v>
-      </c>
-      <c r="AG68" t="s">
-        <v>225</v>
       </c>
     </row>
   </sheetData>
